--- a/examples/test.xlsx
+++ b/examples/test.xlsx
@@ -29,9 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>llllllll</t>
   </si>
 </sst>
 </file>
@@ -962,17 +965,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>454545</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test.xlsx
+++ b/examples/test.xlsx
@@ -968,7 +968,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
